--- a/Beneficient/test_Investments/PDFFileNameData/FileName.xlsx
+++ b/Beneficient/test_Investments/PDFFileNameData/FileName.xlsx
@@ -412,7 +412,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>test_VerifyAllElements_Investments_07_December_2021_03_06PM.pdf</t>
+          <t>test_VerifyAllElements_Investments_11_March_2022_01_00PM.pdf</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -427,7 +427,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
